--- a/Project1_mess/data/data.xlsx
+++ b/Project1_mess/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\CADIGAN\GradProgram\2021\F6005\3LN_redfish\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/hoang_nguyen0_utas_edu_au/Documents/HOANG.Ng84/Education/Hoang.MUN20/Required courses/Fish 6005/labs/F6005/Project1_mess/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1FA80-EDB2-4A7E-8EBB-1023376C829A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{3BE1FA80-EDB2-4A7E-8EBB-1023376C829A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B05E2291-FF45-44E4-9E2D-8B2F54D8E81D}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="27615" windowHeight="14895" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catch" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="len_wt_parms" sheetId="4" r:id="rId3"/>
     <sheet name="maturity@L" sheetId="5" r:id="rId4"/>
     <sheet name="Fall_RV" sheetId="3" r:id="rId5"/>
+    <sheet name="Fake_survey" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -121,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36F9BE8-C929-4F96-9B30-5825B67EEBF8}">
   <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -6129,11 +6131,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD36A50-7322-4CF3-AD92-A2ACE91D91FA}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -7563,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9E5B93-25DA-4ABF-8C0E-34B2076BB91F}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12260,6 +12271,4845 @@
       <c r="AD51">
         <v>25.1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770673DC-48E3-4FC4-9EC3-465EA1D56FD0}">
+  <dimension ref="A1:AE57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1991</v>
+      </c>
+      <c r="C1">
+        <v>1992</v>
+      </c>
+      <c r="D1">
+        <v>1993</v>
+      </c>
+      <c r="E1">
+        <v>1994</v>
+      </c>
+      <c r="F1">
+        <v>1995</v>
+      </c>
+      <c r="G1">
+        <v>1996</v>
+      </c>
+      <c r="H1">
+        <v>1997</v>
+      </c>
+      <c r="I1">
+        <v>1998</v>
+      </c>
+      <c r="J1">
+        <v>1999</v>
+      </c>
+      <c r="K1">
+        <v>2000</v>
+      </c>
+      <c r="L1">
+        <v>2001</v>
+      </c>
+      <c r="M1">
+        <v>2002</v>
+      </c>
+      <c r="N1">
+        <v>2003</v>
+      </c>
+      <c r="O1">
+        <v>2004</v>
+      </c>
+      <c r="P1">
+        <v>2005</v>
+      </c>
+      <c r="Q1">
+        <v>2006</v>
+      </c>
+      <c r="R1">
+        <v>2007</v>
+      </c>
+      <c r="S1">
+        <v>2008</v>
+      </c>
+      <c r="T1">
+        <v>2009</v>
+      </c>
+      <c r="U1">
+        <v>2010</v>
+      </c>
+      <c r="V1">
+        <v>2011</v>
+      </c>
+      <c r="W1">
+        <v>2012</v>
+      </c>
+      <c r="X1">
+        <v>2013</v>
+      </c>
+      <c r="Y1">
+        <v>2014</v>
+      </c>
+      <c r="Z1">
+        <v>2015</v>
+      </c>
+      <c r="AA1">
+        <v>2016</v>
+      </c>
+      <c r="AB1">
+        <v>2017</v>
+      </c>
+      <c r="AC1">
+        <v>2018</v>
+      </c>
+      <c r="AD1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>127</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>86</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>117</v>
+      </c>
+      <c r="L3">
+        <v>445</v>
+      </c>
+      <c r="M3">
+        <v>232</v>
+      </c>
+      <c r="N3">
+        <v>1090</v>
+      </c>
+      <c r="O3">
+        <v>34</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>84</v>
+      </c>
+      <c r="R3">
+        <v>234</v>
+      </c>
+      <c r="S3">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>96</v>
+      </c>
+      <c r="U3">
+        <v>1384</v>
+      </c>
+      <c r="V3">
+        <v>57</v>
+      </c>
+      <c r="W3">
+        <v>263</v>
+      </c>
+      <c r="X3">
+        <v>417</v>
+      </c>
+      <c r="Y3">
+        <v>417</v>
+      </c>
+      <c r="Z3">
+        <v>712</v>
+      </c>
+      <c r="AA3">
+        <v>421</v>
+      </c>
+      <c r="AB3">
+        <v>1580.7</v>
+      </c>
+      <c r="AC3">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>256</v>
+      </c>
+      <c r="G4">
+        <v>359</v>
+      </c>
+      <c r="H4">
+        <v>330</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>251</v>
+      </c>
+      <c r="K4">
+        <v>481</v>
+      </c>
+      <c r="L4">
+        <v>937</v>
+      </c>
+      <c r="M4">
+        <v>915</v>
+      </c>
+      <c r="N4">
+        <v>2427</v>
+      </c>
+      <c r="O4">
+        <v>85</v>
+      </c>
+      <c r="P4">
+        <v>133</v>
+      </c>
+      <c r="Q4">
+        <v>1418</v>
+      </c>
+      <c r="R4">
+        <v>512</v>
+      </c>
+      <c r="S4">
+        <v>641</v>
+      </c>
+      <c r="T4">
+        <v>624</v>
+      </c>
+      <c r="U4">
+        <v>1110</v>
+      </c>
+      <c r="V4">
+        <v>318</v>
+      </c>
+      <c r="W4">
+        <v>1405</v>
+      </c>
+      <c r="X4">
+        <v>4539</v>
+      </c>
+      <c r="Y4">
+        <v>4539</v>
+      </c>
+      <c r="Z4">
+        <v>2832</v>
+      </c>
+      <c r="AA4">
+        <v>735</v>
+      </c>
+      <c r="AB4">
+        <v>16181</v>
+      </c>
+      <c r="AC4">
+        <v>498.9</v>
+      </c>
+      <c r="AD4">
+        <v>235.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>203</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>138</v>
+      </c>
+      <c r="G5">
+        <v>88</v>
+      </c>
+      <c r="H5">
+        <v>395</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>673</v>
+      </c>
+      <c r="L5">
+        <v>755</v>
+      </c>
+      <c r="M5">
+        <v>873</v>
+      </c>
+      <c r="N5">
+        <v>2185</v>
+      </c>
+      <c r="O5">
+        <v>61</v>
+      </c>
+      <c r="P5">
+        <v>162</v>
+      </c>
+      <c r="Q5">
+        <v>1831</v>
+      </c>
+      <c r="R5">
+        <v>2222</v>
+      </c>
+      <c r="S5">
+        <v>2359</v>
+      </c>
+      <c r="T5">
+        <v>318</v>
+      </c>
+      <c r="U5">
+        <v>1405</v>
+      </c>
+      <c r="V5">
+        <v>727</v>
+      </c>
+      <c r="W5">
+        <v>926</v>
+      </c>
+      <c r="X5">
+        <v>2902</v>
+      </c>
+      <c r="Y5">
+        <v>2902</v>
+      </c>
+      <c r="Z5">
+        <v>35136</v>
+      </c>
+      <c r="AA5">
+        <v>499</v>
+      </c>
+      <c r="AB5">
+        <v>19057.599999999999</v>
+      </c>
+      <c r="AC5">
+        <v>3651.7</v>
+      </c>
+      <c r="AD5">
+        <v>743.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1298</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>111</v>
+      </c>
+      <c r="G6">
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <v>386</v>
+      </c>
+      <c r="I6">
+        <v>47</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>602</v>
+      </c>
+      <c r="L6">
+        <v>2114</v>
+      </c>
+      <c r="M6">
+        <v>1614</v>
+      </c>
+      <c r="N6">
+        <v>2714</v>
+      </c>
+      <c r="O6">
+        <v>620</v>
+      </c>
+      <c r="P6">
+        <v>908</v>
+      </c>
+      <c r="Q6">
+        <v>466</v>
+      </c>
+      <c r="R6">
+        <v>2914</v>
+      </c>
+      <c r="S6">
+        <v>2745</v>
+      </c>
+      <c r="T6">
+        <v>871</v>
+      </c>
+      <c r="U6">
+        <v>3377</v>
+      </c>
+      <c r="V6">
+        <v>878</v>
+      </c>
+      <c r="W6">
+        <v>2332</v>
+      </c>
+      <c r="X6">
+        <v>4879</v>
+      </c>
+      <c r="Y6">
+        <v>4879</v>
+      </c>
+      <c r="Z6">
+        <v>86942</v>
+      </c>
+      <c r="AA6">
+        <v>6970</v>
+      </c>
+      <c r="AB6">
+        <v>2504.5</v>
+      </c>
+      <c r="AC6">
+        <v>6102.7</v>
+      </c>
+      <c r="AD6">
+        <v>903.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1236</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>241</v>
+      </c>
+      <c r="G7">
+        <v>146</v>
+      </c>
+      <c r="H7">
+        <v>468</v>
+      </c>
+      <c r="I7">
+        <v>252</v>
+      </c>
+      <c r="J7">
+        <v>421</v>
+      </c>
+      <c r="K7">
+        <v>620</v>
+      </c>
+      <c r="L7">
+        <v>3146</v>
+      </c>
+      <c r="M7">
+        <v>1275</v>
+      </c>
+      <c r="N7">
+        <v>2095</v>
+      </c>
+      <c r="O7">
+        <v>1280</v>
+      </c>
+      <c r="P7">
+        <v>2236</v>
+      </c>
+      <c r="Q7">
+        <v>829</v>
+      </c>
+      <c r="R7">
+        <v>8313</v>
+      </c>
+      <c r="S7">
+        <v>2359</v>
+      </c>
+      <c r="T7">
+        <v>3452</v>
+      </c>
+      <c r="U7">
+        <v>3788</v>
+      </c>
+      <c r="V7">
+        <v>2878</v>
+      </c>
+      <c r="W7">
+        <v>6976</v>
+      </c>
+      <c r="X7">
+        <v>5697</v>
+      </c>
+      <c r="Y7">
+        <v>5697</v>
+      </c>
+      <c r="Z7">
+        <v>33864</v>
+      </c>
+      <c r="AA7">
+        <v>22014</v>
+      </c>
+      <c r="AB7">
+        <v>1713.4</v>
+      </c>
+      <c r="AC7">
+        <v>6281.7</v>
+      </c>
+      <c r="AD7">
+        <v>1910.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7263</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>292</v>
+      </c>
+      <c r="G8">
+        <v>250</v>
+      </c>
+      <c r="H8">
+        <v>306</v>
+      </c>
+      <c r="I8">
+        <v>214</v>
+      </c>
+      <c r="J8">
+        <v>171</v>
+      </c>
+      <c r="K8">
+        <v>388</v>
+      </c>
+      <c r="L8">
+        <v>4323</v>
+      </c>
+      <c r="M8">
+        <v>1129</v>
+      </c>
+      <c r="N8">
+        <v>2855</v>
+      </c>
+      <c r="O8">
+        <v>1719</v>
+      </c>
+      <c r="P8">
+        <v>1574</v>
+      </c>
+      <c r="Q8">
+        <v>1458</v>
+      </c>
+      <c r="R8">
+        <v>8498</v>
+      </c>
+      <c r="S8">
+        <v>4100</v>
+      </c>
+      <c r="T8">
+        <v>9932</v>
+      </c>
+      <c r="U8">
+        <v>4676</v>
+      </c>
+      <c r="V8">
+        <v>2265</v>
+      </c>
+      <c r="W8">
+        <v>9925</v>
+      </c>
+      <c r="X8">
+        <v>5439</v>
+      </c>
+      <c r="Y8">
+        <v>5439</v>
+      </c>
+      <c r="Z8">
+        <v>5654</v>
+      </c>
+      <c r="AA8">
+        <v>50160</v>
+      </c>
+      <c r="AB8">
+        <v>4045.4</v>
+      </c>
+      <c r="AC8">
+        <v>4354.8999999999996</v>
+      </c>
+      <c r="AD8">
+        <v>3121.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>22235</v>
+      </c>
+      <c r="C9">
+        <v>371</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>213</v>
+      </c>
+      <c r="G9">
+        <v>349</v>
+      </c>
+      <c r="H9">
+        <v>249</v>
+      </c>
+      <c r="I9">
+        <v>203</v>
+      </c>
+      <c r="J9">
+        <v>402</v>
+      </c>
+      <c r="K9">
+        <v>215</v>
+      </c>
+      <c r="L9">
+        <v>2846</v>
+      </c>
+      <c r="M9">
+        <v>2840</v>
+      </c>
+      <c r="N9">
+        <v>1839</v>
+      </c>
+      <c r="O9">
+        <v>1046</v>
+      </c>
+      <c r="P9">
+        <v>3957</v>
+      </c>
+      <c r="Q9">
+        <v>1709</v>
+      </c>
+      <c r="R9">
+        <v>7527</v>
+      </c>
+      <c r="S9">
+        <v>5543</v>
+      </c>
+      <c r="T9">
+        <v>5206</v>
+      </c>
+      <c r="U9">
+        <v>6612</v>
+      </c>
+      <c r="V9">
+        <v>1841</v>
+      </c>
+      <c r="W9">
+        <v>8539</v>
+      </c>
+      <c r="X9">
+        <v>8460</v>
+      </c>
+      <c r="Y9">
+        <v>8460</v>
+      </c>
+      <c r="Z9">
+        <v>2409</v>
+      </c>
+      <c r="AA9">
+        <v>12041</v>
+      </c>
+      <c r="AB9">
+        <v>13016</v>
+      </c>
+      <c r="AC9">
+        <v>2124.4</v>
+      </c>
+      <c r="AD9">
+        <v>2681.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>62419</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>372</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>241</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>175</v>
+      </c>
+      <c r="I10">
+        <v>275</v>
+      </c>
+      <c r="J10">
+        <v>786</v>
+      </c>
+      <c r="K10">
+        <v>202</v>
+      </c>
+      <c r="L10">
+        <v>1266</v>
+      </c>
+      <c r="M10">
+        <v>2255</v>
+      </c>
+      <c r="N10">
+        <v>1123</v>
+      </c>
+      <c r="O10">
+        <v>1131</v>
+      </c>
+      <c r="P10">
+        <v>9942</v>
+      </c>
+      <c r="Q10">
+        <v>3083</v>
+      </c>
+      <c r="R10">
+        <v>6352</v>
+      </c>
+      <c r="S10">
+        <v>4861</v>
+      </c>
+      <c r="T10">
+        <v>4025</v>
+      </c>
+      <c r="U10">
+        <v>7947</v>
+      </c>
+      <c r="V10">
+        <v>1925</v>
+      </c>
+      <c r="W10">
+        <v>6516</v>
+      </c>
+      <c r="X10">
+        <v>12917</v>
+      </c>
+      <c r="Y10">
+        <v>12917</v>
+      </c>
+      <c r="Z10">
+        <v>1685</v>
+      </c>
+      <c r="AA10">
+        <v>7325</v>
+      </c>
+      <c r="AB10">
+        <v>19814.3</v>
+      </c>
+      <c r="AC10">
+        <v>4471.3999999999996</v>
+      </c>
+      <c r="AD10">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>109337</v>
+      </c>
+      <c r="C11">
+        <v>3189</v>
+      </c>
+      <c r="D11">
+        <v>457</v>
+      </c>
+      <c r="E11">
+        <v>335</v>
+      </c>
+      <c r="F11">
+        <v>304</v>
+      </c>
+      <c r="G11">
+        <v>274</v>
+      </c>
+      <c r="H11">
+        <v>366</v>
+      </c>
+      <c r="I11">
+        <v>596</v>
+      </c>
+      <c r="J11">
+        <v>868</v>
+      </c>
+      <c r="K11">
+        <v>320</v>
+      </c>
+      <c r="L11">
+        <v>1056</v>
+      </c>
+      <c r="M11">
+        <v>2072</v>
+      </c>
+      <c r="N11">
+        <v>1488</v>
+      </c>
+      <c r="O11">
+        <v>1436</v>
+      </c>
+      <c r="P11">
+        <v>11090</v>
+      </c>
+      <c r="Q11">
+        <v>3970</v>
+      </c>
+      <c r="R11">
+        <v>5871</v>
+      </c>
+      <c r="S11">
+        <v>27297</v>
+      </c>
+      <c r="T11">
+        <v>9473</v>
+      </c>
+      <c r="U11">
+        <v>10315</v>
+      </c>
+      <c r="V11">
+        <v>3250</v>
+      </c>
+      <c r="W11">
+        <v>5463</v>
+      </c>
+      <c r="X11">
+        <v>12133</v>
+      </c>
+      <c r="Y11">
+        <v>12133</v>
+      </c>
+      <c r="Z11">
+        <v>1763</v>
+      </c>
+      <c r="AA11">
+        <v>1941</v>
+      </c>
+      <c r="AB11">
+        <v>21313.7</v>
+      </c>
+      <c r="AC11">
+        <v>6333.9</v>
+      </c>
+      <c r="AD11">
+        <v>3482.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>33876</v>
+      </c>
+      <c r="C12">
+        <v>27936</v>
+      </c>
+      <c r="D12">
+        <v>1775</v>
+      </c>
+      <c r="E12">
+        <v>551</v>
+      </c>
+      <c r="F12">
+        <v>513</v>
+      </c>
+      <c r="G12">
+        <v>1419</v>
+      </c>
+      <c r="H12">
+        <v>728</v>
+      </c>
+      <c r="I12">
+        <v>912</v>
+      </c>
+      <c r="J12">
+        <v>2472</v>
+      </c>
+      <c r="K12">
+        <v>587</v>
+      </c>
+      <c r="L12">
+        <v>445</v>
+      </c>
+      <c r="M12">
+        <v>2545</v>
+      </c>
+      <c r="N12">
+        <v>1451</v>
+      </c>
+      <c r="O12">
+        <v>1015</v>
+      </c>
+      <c r="P12">
+        <v>10309</v>
+      </c>
+      <c r="Q12">
+        <v>8256</v>
+      </c>
+      <c r="R12">
+        <v>9046</v>
+      </c>
+      <c r="S12">
+        <v>28768</v>
+      </c>
+      <c r="T12">
+        <v>20311</v>
+      </c>
+      <c r="U12">
+        <v>11133</v>
+      </c>
+      <c r="V12">
+        <v>4187</v>
+      </c>
+      <c r="W12">
+        <v>6377</v>
+      </c>
+      <c r="X12">
+        <v>15089</v>
+      </c>
+      <c r="Y12">
+        <v>15089</v>
+      </c>
+      <c r="Z12">
+        <v>2479</v>
+      </c>
+      <c r="AA12">
+        <v>970</v>
+      </c>
+      <c r="AB12">
+        <v>19947</v>
+      </c>
+      <c r="AC12">
+        <v>8870.2999999999993</v>
+      </c>
+      <c r="AD12">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>14030</v>
+      </c>
+      <c r="C13">
+        <v>104298</v>
+      </c>
+      <c r="D13">
+        <v>1333</v>
+      </c>
+      <c r="E13">
+        <v>2362</v>
+      </c>
+      <c r="F13">
+        <v>967</v>
+      </c>
+      <c r="G13">
+        <v>722</v>
+      </c>
+      <c r="H13">
+        <v>1104</v>
+      </c>
+      <c r="I13">
+        <v>1768</v>
+      </c>
+      <c r="J13">
+        <v>1548</v>
+      </c>
+      <c r="K13">
+        <v>3635</v>
+      </c>
+      <c r="L13">
+        <v>407</v>
+      </c>
+      <c r="M13">
+        <v>1884</v>
+      </c>
+      <c r="N13">
+        <v>1929</v>
+      </c>
+      <c r="O13">
+        <v>538</v>
+      </c>
+      <c r="P13">
+        <v>8461</v>
+      </c>
+      <c r="Q13">
+        <v>13286</v>
+      </c>
+      <c r="R13">
+        <v>21881</v>
+      </c>
+      <c r="S13">
+        <v>23691</v>
+      </c>
+      <c r="T13">
+        <v>17750</v>
+      </c>
+      <c r="U13">
+        <v>8561</v>
+      </c>
+      <c r="V13">
+        <v>8268</v>
+      </c>
+      <c r="W13">
+        <v>5234</v>
+      </c>
+      <c r="X13">
+        <v>28083</v>
+      </c>
+      <c r="Y13">
+        <v>28083</v>
+      </c>
+      <c r="Z13">
+        <v>3107</v>
+      </c>
+      <c r="AA13">
+        <v>1493</v>
+      </c>
+      <c r="AB13">
+        <v>9834.2000000000007</v>
+      </c>
+      <c r="AC13">
+        <v>9630.7999999999993</v>
+      </c>
+      <c r="AD13">
+        <v>9889.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>7809</v>
+      </c>
+      <c r="C14">
+        <v>113966</v>
+      </c>
+      <c r="D14">
+        <v>3259</v>
+      </c>
+      <c r="E14">
+        <v>3697</v>
+      </c>
+      <c r="F14">
+        <v>1611</v>
+      </c>
+      <c r="G14">
+        <v>919</v>
+      </c>
+      <c r="H14">
+        <v>1405</v>
+      </c>
+      <c r="I14">
+        <v>4159</v>
+      </c>
+      <c r="J14">
+        <v>717</v>
+      </c>
+      <c r="K14">
+        <v>4671</v>
+      </c>
+      <c r="L14">
+        <v>11018</v>
+      </c>
+      <c r="M14">
+        <v>2159</v>
+      </c>
+      <c r="N14">
+        <v>8240</v>
+      </c>
+      <c r="O14">
+        <v>879</v>
+      </c>
+      <c r="P14">
+        <v>6083</v>
+      </c>
+      <c r="Q14">
+        <v>20912</v>
+      </c>
+      <c r="R14">
+        <v>40243</v>
+      </c>
+      <c r="S14">
+        <v>116528</v>
+      </c>
+      <c r="T14">
+        <v>35720</v>
+      </c>
+      <c r="U14">
+        <v>12943</v>
+      </c>
+      <c r="V14">
+        <v>14606</v>
+      </c>
+      <c r="W14">
+        <v>3150</v>
+      </c>
+      <c r="X14">
+        <v>12974</v>
+      </c>
+      <c r="Y14">
+        <v>12974</v>
+      </c>
+      <c r="Z14">
+        <v>3043</v>
+      </c>
+      <c r="AA14">
+        <v>1134</v>
+      </c>
+      <c r="AB14">
+        <v>8193.6</v>
+      </c>
+      <c r="AC14">
+        <v>8954.7999999999993</v>
+      </c>
+      <c r="AD14">
+        <v>15946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7860</v>
+      </c>
+      <c r="C15">
+        <v>106448</v>
+      </c>
+      <c r="D15">
+        <v>5283</v>
+      </c>
+      <c r="E15">
+        <v>12985</v>
+      </c>
+      <c r="F15">
+        <v>9645</v>
+      </c>
+      <c r="G15">
+        <v>825</v>
+      </c>
+      <c r="H15">
+        <v>1848</v>
+      </c>
+      <c r="I15">
+        <v>8155</v>
+      </c>
+      <c r="J15">
+        <v>1144</v>
+      </c>
+      <c r="K15">
+        <v>5480</v>
+      </c>
+      <c r="L15">
+        <v>31421</v>
+      </c>
+      <c r="M15">
+        <v>4694</v>
+      </c>
+      <c r="N15">
+        <v>15193</v>
+      </c>
+      <c r="O15">
+        <v>1984</v>
+      </c>
+      <c r="P15">
+        <v>5713</v>
+      </c>
+      <c r="Q15">
+        <v>27177</v>
+      </c>
+      <c r="R15">
+        <v>51164</v>
+      </c>
+      <c r="S15">
+        <v>228751</v>
+      </c>
+      <c r="T15">
+        <v>138765</v>
+      </c>
+      <c r="U15">
+        <v>18474</v>
+      </c>
+      <c r="V15">
+        <v>46427</v>
+      </c>
+      <c r="W15">
+        <v>9778</v>
+      </c>
+      <c r="X15">
+        <v>15860</v>
+      </c>
+      <c r="Y15">
+        <v>15860</v>
+      </c>
+      <c r="Z15">
+        <v>4208</v>
+      </c>
+      <c r="AA15">
+        <v>1105</v>
+      </c>
+      <c r="AB15">
+        <v>7944.6</v>
+      </c>
+      <c r="AC15">
+        <v>7670.9</v>
+      </c>
+      <c r="AD15">
+        <v>46786.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>16191</v>
+      </c>
+      <c r="C16">
+        <v>95896</v>
+      </c>
+      <c r="D16">
+        <v>8707</v>
+      </c>
+      <c r="E16">
+        <v>28684</v>
+      </c>
+      <c r="F16">
+        <v>37932</v>
+      </c>
+      <c r="G16">
+        <v>2227</v>
+      </c>
+      <c r="H16">
+        <v>2095</v>
+      </c>
+      <c r="I16">
+        <v>12225</v>
+      </c>
+      <c r="J16">
+        <v>3185</v>
+      </c>
+      <c r="K16">
+        <v>7035</v>
+      </c>
+      <c r="L16">
+        <v>57695</v>
+      </c>
+      <c r="M16">
+        <v>9082</v>
+      </c>
+      <c r="N16">
+        <v>25813</v>
+      </c>
+      <c r="O16">
+        <v>5468</v>
+      </c>
+      <c r="P16">
+        <v>7248</v>
+      </c>
+      <c r="Q16">
+        <v>23009</v>
+      </c>
+      <c r="R16">
+        <v>43358</v>
+      </c>
+      <c r="S16">
+        <v>221311</v>
+      </c>
+      <c r="T16">
+        <v>396982</v>
+      </c>
+      <c r="U16">
+        <v>77810</v>
+      </c>
+      <c r="V16">
+        <v>103647</v>
+      </c>
+      <c r="W16">
+        <v>24081</v>
+      </c>
+      <c r="X16">
+        <v>34943</v>
+      </c>
+      <c r="Y16">
+        <v>34943</v>
+      </c>
+      <c r="Z16">
+        <v>4920</v>
+      </c>
+      <c r="AA16">
+        <v>1136</v>
+      </c>
+      <c r="AB16">
+        <v>8079.5</v>
+      </c>
+      <c r="AC16">
+        <v>5001.2</v>
+      </c>
+      <c r="AD16">
+        <v>58102.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>32214</v>
+      </c>
+      <c r="C17">
+        <v>71577</v>
+      </c>
+      <c r="D17">
+        <v>6425</v>
+      </c>
+      <c r="E17">
+        <v>29295</v>
+      </c>
+      <c r="F17">
+        <v>72192</v>
+      </c>
+      <c r="G17">
+        <v>5062</v>
+      </c>
+      <c r="H17">
+        <v>8438</v>
+      </c>
+      <c r="I17">
+        <v>17373</v>
+      </c>
+      <c r="J17">
+        <v>6536</v>
+      </c>
+      <c r="K17">
+        <v>11926</v>
+      </c>
+      <c r="L17">
+        <v>74228</v>
+      </c>
+      <c r="M17">
+        <v>13661</v>
+      </c>
+      <c r="N17">
+        <v>38672</v>
+      </c>
+      <c r="O17">
+        <v>8222</v>
+      </c>
+      <c r="P17">
+        <v>10928</v>
+      </c>
+      <c r="Q17">
+        <v>24342</v>
+      </c>
+      <c r="R17">
+        <v>35091</v>
+      </c>
+      <c r="S17">
+        <v>141084</v>
+      </c>
+      <c r="T17">
+        <v>421539</v>
+      </c>
+      <c r="U17">
+        <v>269160</v>
+      </c>
+      <c r="V17">
+        <v>432556</v>
+      </c>
+      <c r="W17">
+        <v>116751</v>
+      </c>
+      <c r="X17">
+        <v>92467</v>
+      </c>
+      <c r="Y17">
+        <v>92467</v>
+      </c>
+      <c r="Z17">
+        <v>28086</v>
+      </c>
+      <c r="AA17">
+        <v>3178</v>
+      </c>
+      <c r="AB17">
+        <v>15464.6</v>
+      </c>
+      <c r="AC17">
+        <v>2345.5</v>
+      </c>
+      <c r="AD17">
+        <v>61906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>27189</v>
+      </c>
+      <c r="C18">
+        <v>113846</v>
+      </c>
+      <c r="D18">
+        <v>3906</v>
+      </c>
+      <c r="E18">
+        <v>15292</v>
+      </c>
+      <c r="F18">
+        <v>78316</v>
+      </c>
+      <c r="G18">
+        <v>6479</v>
+      </c>
+      <c r="H18">
+        <v>21672</v>
+      </c>
+      <c r="I18">
+        <v>46005</v>
+      </c>
+      <c r="J18">
+        <v>9068</v>
+      </c>
+      <c r="K18">
+        <v>31680</v>
+      </c>
+      <c r="L18">
+        <v>80538</v>
+      </c>
+      <c r="M18">
+        <v>12568</v>
+      </c>
+      <c r="N18">
+        <v>45262</v>
+      </c>
+      <c r="O18">
+        <v>9790</v>
+      </c>
+      <c r="P18">
+        <v>15982</v>
+      </c>
+      <c r="Q18">
+        <v>26793</v>
+      </c>
+      <c r="R18">
+        <v>45870</v>
+      </c>
+      <c r="S18">
+        <v>78263</v>
+      </c>
+      <c r="T18">
+        <v>279787</v>
+      </c>
+      <c r="U18">
+        <v>459453</v>
+      </c>
+      <c r="V18">
+        <v>996936</v>
+      </c>
+      <c r="W18">
+        <v>315398</v>
+      </c>
+      <c r="X18">
+        <v>109915</v>
+      </c>
+      <c r="Y18">
+        <v>109915</v>
+      </c>
+      <c r="Z18">
+        <v>96233</v>
+      </c>
+      <c r="AA18">
+        <v>16383</v>
+      </c>
+      <c r="AB18">
+        <v>41884.400000000001</v>
+      </c>
+      <c r="AC18">
+        <v>6548.6</v>
+      </c>
+      <c r="AD18">
+        <v>36930.800000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>15810</v>
+      </c>
+      <c r="C19">
+        <v>148628</v>
+      </c>
+      <c r="D19">
+        <v>5306</v>
+      </c>
+      <c r="E19">
+        <v>7701</v>
+      </c>
+      <c r="F19">
+        <v>43397</v>
+      </c>
+      <c r="G19">
+        <v>6621</v>
+      </c>
+      <c r="H19">
+        <v>47562</v>
+      </c>
+      <c r="I19">
+        <v>88726</v>
+      </c>
+      <c r="J19">
+        <v>15347</v>
+      </c>
+      <c r="K19">
+        <v>50184</v>
+      </c>
+      <c r="L19">
+        <v>65575</v>
+      </c>
+      <c r="M19">
+        <v>16481</v>
+      </c>
+      <c r="N19">
+        <v>42849</v>
+      </c>
+      <c r="O19">
+        <v>13134</v>
+      </c>
+      <c r="P19">
+        <v>25645</v>
+      </c>
+      <c r="Q19">
+        <v>36447</v>
+      </c>
+      <c r="R19">
+        <v>55971</v>
+      </c>
+      <c r="S19">
+        <v>63995</v>
+      </c>
+      <c r="T19">
+        <v>138841</v>
+      </c>
+      <c r="U19">
+        <v>499979</v>
+      </c>
+      <c r="V19">
+        <v>1198226</v>
+      </c>
+      <c r="W19">
+        <v>664907</v>
+      </c>
+      <c r="X19">
+        <v>283174</v>
+      </c>
+      <c r="Y19">
+        <v>283174</v>
+      </c>
+      <c r="Z19">
+        <v>285478</v>
+      </c>
+      <c r="AA19">
+        <v>71859</v>
+      </c>
+      <c r="AB19">
+        <v>102483.7</v>
+      </c>
+      <c r="AC19">
+        <v>24542.799999999999</v>
+      </c>
+      <c r="AD19">
+        <v>63201.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>7915</v>
+      </c>
+      <c r="C20">
+        <v>153395</v>
+      </c>
+      <c r="D20">
+        <v>6375</v>
+      </c>
+      <c r="E20">
+        <v>5119</v>
+      </c>
+      <c r="F20">
+        <v>27652</v>
+      </c>
+      <c r="G20">
+        <v>6123</v>
+      </c>
+      <c r="H20">
+        <v>52500</v>
+      </c>
+      <c r="I20">
+        <v>124662</v>
+      </c>
+      <c r="J20">
+        <v>23121</v>
+      </c>
+      <c r="K20">
+        <v>66781</v>
+      </c>
+      <c r="L20">
+        <v>130029</v>
+      </c>
+      <c r="M20">
+        <v>20168</v>
+      </c>
+      <c r="N20">
+        <v>39683</v>
+      </c>
+      <c r="O20">
+        <v>13632</v>
+      </c>
+      <c r="P20">
+        <v>23899</v>
+      </c>
+      <c r="Q20">
+        <v>49628</v>
+      </c>
+      <c r="R20">
+        <v>61550</v>
+      </c>
+      <c r="S20">
+        <v>55482</v>
+      </c>
+      <c r="T20">
+        <v>67350</v>
+      </c>
+      <c r="U20">
+        <v>303473</v>
+      </c>
+      <c r="V20">
+        <v>587045</v>
+      </c>
+      <c r="W20">
+        <v>653151</v>
+      </c>
+      <c r="X20">
+        <v>454374</v>
+      </c>
+      <c r="Y20">
+        <v>454374</v>
+      </c>
+      <c r="Z20">
+        <v>521322</v>
+      </c>
+      <c r="AA20">
+        <v>156747</v>
+      </c>
+      <c r="AB20">
+        <v>186946.8</v>
+      </c>
+      <c r="AC20">
+        <v>103635.4</v>
+      </c>
+      <c r="AD20">
+        <v>138322.70000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>6139</v>
+      </c>
+      <c r="C21">
+        <v>89704</v>
+      </c>
+      <c r="D21">
+        <v>6578</v>
+      </c>
+      <c r="E21">
+        <v>6494</v>
+      </c>
+      <c r="F21">
+        <v>20117</v>
+      </c>
+      <c r="G21">
+        <v>6743</v>
+      </c>
+      <c r="H21">
+        <v>44777</v>
+      </c>
+      <c r="I21">
+        <v>92991</v>
+      </c>
+      <c r="J21">
+        <v>29000</v>
+      </c>
+      <c r="K21">
+        <v>60123</v>
+      </c>
+      <c r="L21">
+        <v>118427</v>
+      </c>
+      <c r="M21">
+        <v>23529</v>
+      </c>
+      <c r="N21">
+        <v>39374</v>
+      </c>
+      <c r="O21">
+        <v>16732</v>
+      </c>
+      <c r="P21">
+        <v>29785</v>
+      </c>
+      <c r="Q21">
+        <v>71774</v>
+      </c>
+      <c r="R21">
+        <v>84212</v>
+      </c>
+      <c r="S21">
+        <v>89011</v>
+      </c>
+      <c r="T21">
+        <v>53177</v>
+      </c>
+      <c r="U21">
+        <v>261470</v>
+      </c>
+      <c r="V21">
+        <v>300782</v>
+      </c>
+      <c r="W21">
+        <v>501477</v>
+      </c>
+      <c r="X21">
+        <v>309498</v>
+      </c>
+      <c r="Y21">
+        <v>309498</v>
+      </c>
+      <c r="Z21">
+        <v>455999</v>
+      </c>
+      <c r="AA21">
+        <v>203674</v>
+      </c>
+      <c r="AB21">
+        <v>206449.5</v>
+      </c>
+      <c r="AC21">
+        <v>175899.6</v>
+      </c>
+      <c r="AD21">
+        <v>236541.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>8377</v>
+      </c>
+      <c r="C22">
+        <v>28658</v>
+      </c>
+      <c r="D22">
+        <v>5164</v>
+      </c>
+      <c r="E22">
+        <v>5456</v>
+      </c>
+      <c r="F22">
+        <v>10296</v>
+      </c>
+      <c r="G22">
+        <v>4864</v>
+      </c>
+      <c r="H22">
+        <v>31865</v>
+      </c>
+      <c r="I22">
+        <v>56410</v>
+      </c>
+      <c r="J22">
+        <v>26969</v>
+      </c>
+      <c r="K22">
+        <v>52986</v>
+      </c>
+      <c r="L22">
+        <v>85149</v>
+      </c>
+      <c r="M22">
+        <v>25353</v>
+      </c>
+      <c r="N22">
+        <v>31785</v>
+      </c>
+      <c r="O22">
+        <v>15458</v>
+      </c>
+      <c r="P22">
+        <v>20362</v>
+      </c>
+      <c r="Q22">
+        <v>67361</v>
+      </c>
+      <c r="R22">
+        <v>81986</v>
+      </c>
+      <c r="S22">
+        <v>80398</v>
+      </c>
+      <c r="T22">
+        <v>65248</v>
+      </c>
+      <c r="U22">
+        <v>260734</v>
+      </c>
+      <c r="V22">
+        <v>126712</v>
+      </c>
+      <c r="W22">
+        <v>314858</v>
+      </c>
+      <c r="X22">
+        <v>193667</v>
+      </c>
+      <c r="Y22">
+        <v>193667</v>
+      </c>
+      <c r="Z22">
+        <v>350489</v>
+      </c>
+      <c r="AA22">
+        <v>151521</v>
+      </c>
+      <c r="AB22">
+        <v>151608.1</v>
+      </c>
+      <c r="AC22">
+        <v>188184.2</v>
+      </c>
+      <c r="AD22">
+        <v>229437.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>8943</v>
+      </c>
+      <c r="C23">
+        <v>14222</v>
+      </c>
+      <c r="D23">
+        <v>3947</v>
+      </c>
+      <c r="E23">
+        <v>6808</v>
+      </c>
+      <c r="F23">
+        <v>12898</v>
+      </c>
+      <c r="G23">
+        <v>4429</v>
+      </c>
+      <c r="H23">
+        <v>24356</v>
+      </c>
+      <c r="I23">
+        <v>30123</v>
+      </c>
+      <c r="J23">
+        <v>29819</v>
+      </c>
+      <c r="K23">
+        <v>50534</v>
+      </c>
+      <c r="L23">
+        <v>64519</v>
+      </c>
+      <c r="M23">
+        <v>21326</v>
+      </c>
+      <c r="N23">
+        <v>21398</v>
+      </c>
+      <c r="O23">
+        <v>13066</v>
+      </c>
+      <c r="P23">
+        <v>15824</v>
+      </c>
+      <c r="Q23">
+        <v>34947</v>
+      </c>
+      <c r="R23">
+        <v>57418</v>
+      </c>
+      <c r="S23">
+        <v>66252</v>
+      </c>
+      <c r="T23">
+        <v>46806</v>
+      </c>
+      <c r="U23">
+        <v>165444</v>
+      </c>
+      <c r="V23">
+        <v>97731</v>
+      </c>
+      <c r="W23">
+        <v>203720</v>
+      </c>
+      <c r="X23">
+        <v>122411</v>
+      </c>
+      <c r="Y23">
+        <v>122411</v>
+      </c>
+      <c r="Z23">
+        <v>221208</v>
+      </c>
+      <c r="AA23">
+        <v>87514</v>
+      </c>
+      <c r="AB23">
+        <v>106462.2</v>
+      </c>
+      <c r="AC23">
+        <v>120878.39999999999</v>
+      </c>
+      <c r="AD23">
+        <v>200465.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>6602</v>
+      </c>
+      <c r="C24">
+        <v>13410</v>
+      </c>
+      <c r="D24">
+        <v>4120</v>
+      </c>
+      <c r="E24">
+        <v>8670</v>
+      </c>
+      <c r="F24">
+        <v>8517</v>
+      </c>
+      <c r="G24">
+        <v>4370</v>
+      </c>
+      <c r="H24">
+        <v>21375</v>
+      </c>
+      <c r="I24">
+        <v>23090</v>
+      </c>
+      <c r="J24">
+        <v>27515</v>
+      </c>
+      <c r="K24">
+        <v>40188</v>
+      </c>
+      <c r="L24">
+        <v>39693</v>
+      </c>
+      <c r="M24">
+        <v>19872</v>
+      </c>
+      <c r="N24">
+        <v>18032</v>
+      </c>
+      <c r="O24">
+        <v>10432</v>
+      </c>
+      <c r="P24">
+        <v>12713</v>
+      </c>
+      <c r="Q24">
+        <v>32335</v>
+      </c>
+      <c r="R24">
+        <v>39981</v>
+      </c>
+      <c r="S24">
+        <v>49866</v>
+      </c>
+      <c r="T24">
+        <v>39922</v>
+      </c>
+      <c r="U24">
+        <v>120859</v>
+      </c>
+      <c r="V24">
+        <v>82802</v>
+      </c>
+      <c r="W24">
+        <v>152183</v>
+      </c>
+      <c r="X24">
+        <v>64144</v>
+      </c>
+      <c r="Y24">
+        <v>64144</v>
+      </c>
+      <c r="Z24">
+        <v>115600</v>
+      </c>
+      <c r="AA24">
+        <v>64422</v>
+      </c>
+      <c r="AB24">
+        <v>91853.9</v>
+      </c>
+      <c r="AC24">
+        <v>99713.9</v>
+      </c>
+      <c r="AD24">
+        <v>124483.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>4022</v>
+      </c>
+      <c r="C25">
+        <v>14699</v>
+      </c>
+      <c r="D25">
+        <v>4361</v>
+      </c>
+      <c r="E25">
+        <v>7830</v>
+      </c>
+      <c r="F25">
+        <v>17364</v>
+      </c>
+      <c r="G25">
+        <v>2890</v>
+      </c>
+      <c r="H25">
+        <v>21141</v>
+      </c>
+      <c r="I25">
+        <v>20596</v>
+      </c>
+      <c r="J25">
+        <v>25585</v>
+      </c>
+      <c r="K25">
+        <v>21851</v>
+      </c>
+      <c r="L25">
+        <v>33743</v>
+      </c>
+      <c r="M25">
+        <v>16470</v>
+      </c>
+      <c r="N25">
+        <v>17605</v>
+      </c>
+      <c r="O25">
+        <v>9397</v>
+      </c>
+      <c r="P25">
+        <v>10857</v>
+      </c>
+      <c r="Q25">
+        <v>19109</v>
+      </c>
+      <c r="R25">
+        <v>26128</v>
+      </c>
+      <c r="S25">
+        <v>48823</v>
+      </c>
+      <c r="T25">
+        <v>34957</v>
+      </c>
+      <c r="U25">
+        <v>95155</v>
+      </c>
+      <c r="V25">
+        <v>49339</v>
+      </c>
+      <c r="W25">
+        <v>135137</v>
+      </c>
+      <c r="X25">
+        <v>32163</v>
+      </c>
+      <c r="Y25">
+        <v>32163</v>
+      </c>
+      <c r="Z25">
+        <v>95100</v>
+      </c>
+      <c r="AA25">
+        <v>25728</v>
+      </c>
+      <c r="AB25">
+        <v>52375.1</v>
+      </c>
+      <c r="AC25">
+        <v>65106</v>
+      </c>
+      <c r="AD25">
+        <v>89372.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3776</v>
+      </c>
+      <c r="C26">
+        <v>8768</v>
+      </c>
+      <c r="D26">
+        <v>4240</v>
+      </c>
+      <c r="E26">
+        <v>8402</v>
+      </c>
+      <c r="F26">
+        <v>17495</v>
+      </c>
+      <c r="G26">
+        <v>2707</v>
+      </c>
+      <c r="H26">
+        <v>14031</v>
+      </c>
+      <c r="I26">
+        <v>18336</v>
+      </c>
+      <c r="J26">
+        <v>24801</v>
+      </c>
+      <c r="K26">
+        <v>17424</v>
+      </c>
+      <c r="L26">
+        <v>20396</v>
+      </c>
+      <c r="M26">
+        <v>10503</v>
+      </c>
+      <c r="N26">
+        <v>13962</v>
+      </c>
+      <c r="O26">
+        <v>12135</v>
+      </c>
+      <c r="P26">
+        <v>12471</v>
+      </c>
+      <c r="Q26">
+        <v>11651</v>
+      </c>
+      <c r="R26">
+        <v>19087</v>
+      </c>
+      <c r="S26">
+        <v>37469</v>
+      </c>
+      <c r="T26">
+        <v>24861</v>
+      </c>
+      <c r="U26">
+        <v>72543</v>
+      </c>
+      <c r="V26">
+        <v>35075</v>
+      </c>
+      <c r="W26">
+        <v>76038</v>
+      </c>
+      <c r="X26">
+        <v>23430</v>
+      </c>
+      <c r="Y26">
+        <v>23430</v>
+      </c>
+      <c r="Z26">
+        <v>62113</v>
+      </c>
+      <c r="AA26">
+        <v>16853</v>
+      </c>
+      <c r="AB26">
+        <v>34502.9</v>
+      </c>
+      <c r="AC26">
+        <v>33366</v>
+      </c>
+      <c r="AD26">
+        <v>54050.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>2526</v>
+      </c>
+      <c r="C27">
+        <v>4855</v>
+      </c>
+      <c r="D27">
+        <v>3503</v>
+      </c>
+      <c r="E27">
+        <v>7625</v>
+      </c>
+      <c r="F27">
+        <v>16330</v>
+      </c>
+      <c r="G27">
+        <v>2678</v>
+      </c>
+      <c r="H27">
+        <v>8032</v>
+      </c>
+      <c r="I27">
+        <v>13397</v>
+      </c>
+      <c r="J27">
+        <v>16323</v>
+      </c>
+      <c r="K27">
+        <v>16387</v>
+      </c>
+      <c r="L27">
+        <v>14957</v>
+      </c>
+      <c r="M27">
+        <v>7230</v>
+      </c>
+      <c r="N27">
+        <v>7798</v>
+      </c>
+      <c r="O27">
+        <v>13950</v>
+      </c>
+      <c r="P27">
+        <v>12659</v>
+      </c>
+      <c r="Q27">
+        <v>10147</v>
+      </c>
+      <c r="R27">
+        <v>13206</v>
+      </c>
+      <c r="S27">
+        <v>21724</v>
+      </c>
+      <c r="T27">
+        <v>24372</v>
+      </c>
+      <c r="U27">
+        <v>38007</v>
+      </c>
+      <c r="V27">
+        <v>30904</v>
+      </c>
+      <c r="W27">
+        <v>67575</v>
+      </c>
+      <c r="X27">
+        <v>16618</v>
+      </c>
+      <c r="Y27">
+        <v>16618</v>
+      </c>
+      <c r="Z27">
+        <v>44305</v>
+      </c>
+      <c r="AA27">
+        <v>16202</v>
+      </c>
+      <c r="AB27">
+        <v>29017.3</v>
+      </c>
+      <c r="AC27">
+        <v>18777.5</v>
+      </c>
+      <c r="AD27">
+        <v>23000.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>2110</v>
+      </c>
+      <c r="C28">
+        <v>3340</v>
+      </c>
+      <c r="D28">
+        <v>2765</v>
+      </c>
+      <c r="E28">
+        <v>6195</v>
+      </c>
+      <c r="F28">
+        <v>12717</v>
+      </c>
+      <c r="G28">
+        <v>2242</v>
+      </c>
+      <c r="H28">
+        <v>6138</v>
+      </c>
+      <c r="I28">
+        <v>7942</v>
+      </c>
+      <c r="J28">
+        <v>11346</v>
+      </c>
+      <c r="K28">
+        <v>12127</v>
+      </c>
+      <c r="L28">
+        <v>11093</v>
+      </c>
+      <c r="M28">
+        <v>5122</v>
+      </c>
+      <c r="N28">
+        <v>4910</v>
+      </c>
+      <c r="O28">
+        <v>12267</v>
+      </c>
+      <c r="P28">
+        <v>9865</v>
+      </c>
+      <c r="Q28">
+        <v>7475</v>
+      </c>
+      <c r="R28">
+        <v>7643</v>
+      </c>
+      <c r="S28">
+        <v>18374</v>
+      </c>
+      <c r="T28">
+        <v>14245</v>
+      </c>
+      <c r="U28">
+        <v>26788</v>
+      </c>
+      <c r="V28">
+        <v>35523</v>
+      </c>
+      <c r="W28">
+        <v>46137</v>
+      </c>
+      <c r="X28">
+        <v>14071</v>
+      </c>
+      <c r="Y28">
+        <v>14071</v>
+      </c>
+      <c r="Z28">
+        <v>31552</v>
+      </c>
+      <c r="AA28">
+        <v>12743</v>
+      </c>
+      <c r="AB28">
+        <v>21133.599999999999</v>
+      </c>
+      <c r="AC28">
+        <v>12395.2</v>
+      </c>
+      <c r="AD28">
+        <v>16565.099999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1960</v>
+      </c>
+      <c r="C29">
+        <v>3229</v>
+      </c>
+      <c r="D29">
+        <v>1949</v>
+      </c>
+      <c r="E29">
+        <v>4553</v>
+      </c>
+      <c r="F29">
+        <v>16297</v>
+      </c>
+      <c r="G29">
+        <v>3409</v>
+      </c>
+      <c r="H29">
+        <v>4994</v>
+      </c>
+      <c r="I29">
+        <v>6250</v>
+      </c>
+      <c r="J29">
+        <v>7641</v>
+      </c>
+      <c r="K29">
+        <v>10199</v>
+      </c>
+      <c r="L29">
+        <v>9147</v>
+      </c>
+      <c r="M29">
+        <v>5109</v>
+      </c>
+      <c r="N29">
+        <v>3755</v>
+      </c>
+      <c r="O29">
+        <v>9066</v>
+      </c>
+      <c r="P29">
+        <v>7347</v>
+      </c>
+      <c r="Q29">
+        <v>9531</v>
+      </c>
+      <c r="R29">
+        <v>6404</v>
+      </c>
+      <c r="S29">
+        <v>11854</v>
+      </c>
+      <c r="T29">
+        <v>10895</v>
+      </c>
+      <c r="U29">
+        <v>15934</v>
+      </c>
+      <c r="V29">
+        <v>17230</v>
+      </c>
+      <c r="W29">
+        <v>29841</v>
+      </c>
+      <c r="X29">
+        <v>8793</v>
+      </c>
+      <c r="Y29">
+        <v>8793</v>
+      </c>
+      <c r="Z29">
+        <v>35300</v>
+      </c>
+      <c r="AA29">
+        <v>12982</v>
+      </c>
+      <c r="AB29">
+        <v>18870</v>
+      </c>
+      <c r="AC29">
+        <v>10961</v>
+      </c>
+      <c r="AD29">
+        <v>13075.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1314</v>
+      </c>
+      <c r="C30">
+        <v>2389</v>
+      </c>
+      <c r="D30">
+        <v>1901</v>
+      </c>
+      <c r="E30">
+        <v>2709</v>
+      </c>
+      <c r="F30">
+        <v>10628</v>
+      </c>
+      <c r="G30">
+        <v>2210</v>
+      </c>
+      <c r="H30">
+        <v>4035</v>
+      </c>
+      <c r="I30">
+        <v>5730</v>
+      </c>
+      <c r="J30">
+        <v>6315</v>
+      </c>
+      <c r="K30">
+        <v>7165</v>
+      </c>
+      <c r="L30">
+        <v>5261</v>
+      </c>
+      <c r="M30">
+        <v>4608</v>
+      </c>
+      <c r="N30">
+        <v>3523</v>
+      </c>
+      <c r="O30">
+        <v>6787</v>
+      </c>
+      <c r="P30">
+        <v>5214</v>
+      </c>
+      <c r="Q30">
+        <v>7469</v>
+      </c>
+      <c r="R30">
+        <v>4180</v>
+      </c>
+      <c r="S30">
+        <v>6793</v>
+      </c>
+      <c r="T30">
+        <v>7953</v>
+      </c>
+      <c r="U30">
+        <v>14869</v>
+      </c>
+      <c r="V30">
+        <v>11668</v>
+      </c>
+      <c r="W30">
+        <v>28059</v>
+      </c>
+      <c r="X30">
+        <v>8562</v>
+      </c>
+      <c r="Y30">
+        <v>8562</v>
+      </c>
+      <c r="Z30">
+        <v>5061</v>
+      </c>
+      <c r="AA30">
+        <v>13155</v>
+      </c>
+      <c r="AB30">
+        <v>18091.400000000001</v>
+      </c>
+      <c r="AC30">
+        <v>6614.2</v>
+      </c>
+      <c r="AD30">
+        <v>9005.2000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1212</v>
+      </c>
+      <c r="C31">
+        <v>3299</v>
+      </c>
+      <c r="D31">
+        <v>1671</v>
+      </c>
+      <c r="E31">
+        <v>1603</v>
+      </c>
+      <c r="F31">
+        <v>7262</v>
+      </c>
+      <c r="G31">
+        <v>1220</v>
+      </c>
+      <c r="H31">
+        <v>2107</v>
+      </c>
+      <c r="I31">
+        <v>3878</v>
+      </c>
+      <c r="J31">
+        <v>5642</v>
+      </c>
+      <c r="K31">
+        <v>5026</v>
+      </c>
+      <c r="L31">
+        <v>4354</v>
+      </c>
+      <c r="M31">
+        <v>3862</v>
+      </c>
+      <c r="N31">
+        <v>3360</v>
+      </c>
+      <c r="O31">
+        <v>4636</v>
+      </c>
+      <c r="P31">
+        <v>4905</v>
+      </c>
+      <c r="Q31">
+        <v>4870</v>
+      </c>
+      <c r="R31">
+        <v>3623</v>
+      </c>
+      <c r="S31">
+        <v>6389</v>
+      </c>
+      <c r="T31">
+        <v>6675</v>
+      </c>
+      <c r="U31">
+        <v>9280</v>
+      </c>
+      <c r="V31">
+        <v>4838</v>
+      </c>
+      <c r="W31">
+        <v>18841</v>
+      </c>
+      <c r="X31">
+        <v>5790</v>
+      </c>
+      <c r="Y31">
+        <v>5790</v>
+      </c>
+      <c r="Z31">
+        <v>8421</v>
+      </c>
+      <c r="AA31">
+        <v>18683</v>
+      </c>
+      <c r="AB31">
+        <v>15925.1</v>
+      </c>
+      <c r="AC31">
+        <v>4790</v>
+      </c>
+      <c r="AD31">
+        <v>5002.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>1117</v>
+      </c>
+      <c r="C32">
+        <v>1431</v>
+      </c>
+      <c r="D32">
+        <v>1286</v>
+      </c>
+      <c r="E32">
+        <v>916</v>
+      </c>
+      <c r="F32">
+        <v>3447</v>
+      </c>
+      <c r="G32">
+        <v>559</v>
+      </c>
+      <c r="H32">
+        <v>1673</v>
+      </c>
+      <c r="I32">
+        <v>4512</v>
+      </c>
+      <c r="J32">
+        <v>4545</v>
+      </c>
+      <c r="K32">
+        <v>3369</v>
+      </c>
+      <c r="L32">
+        <v>2776</v>
+      </c>
+      <c r="M32">
+        <v>2701</v>
+      </c>
+      <c r="N32">
+        <v>2182</v>
+      </c>
+      <c r="O32">
+        <v>2959</v>
+      </c>
+      <c r="P32">
+        <v>3942</v>
+      </c>
+      <c r="Q32">
+        <v>2096</v>
+      </c>
+      <c r="R32">
+        <v>2183</v>
+      </c>
+      <c r="S32">
+        <v>5268</v>
+      </c>
+      <c r="T32">
+        <v>3627</v>
+      </c>
+      <c r="U32">
+        <v>5875</v>
+      </c>
+      <c r="V32">
+        <v>2164</v>
+      </c>
+      <c r="W32">
+        <v>7507</v>
+      </c>
+      <c r="X32">
+        <v>2538</v>
+      </c>
+      <c r="Y32">
+        <v>2538</v>
+      </c>
+      <c r="Z32">
+        <v>3360</v>
+      </c>
+      <c r="AA32">
+        <v>15952</v>
+      </c>
+      <c r="AB32">
+        <v>10825.6</v>
+      </c>
+      <c r="AC32">
+        <v>3305.2</v>
+      </c>
+      <c r="AD32">
+        <v>3562.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>1287</v>
+      </c>
+      <c r="C33">
+        <v>716</v>
+      </c>
+      <c r="D33">
+        <v>1044</v>
+      </c>
+      <c r="E33">
+        <v>610</v>
+      </c>
+      <c r="F33">
+        <v>1966</v>
+      </c>
+      <c r="G33">
+        <v>217</v>
+      </c>
+      <c r="H33">
+        <v>653</v>
+      </c>
+      <c r="I33">
+        <v>2048</v>
+      </c>
+      <c r="J33">
+        <v>3256</v>
+      </c>
+      <c r="K33">
+        <v>1303</v>
+      </c>
+      <c r="L33">
+        <v>1679</v>
+      </c>
+      <c r="M33">
+        <v>1451</v>
+      </c>
+      <c r="N33">
+        <v>1175</v>
+      </c>
+      <c r="O33">
+        <v>1760</v>
+      </c>
+      <c r="P33">
+        <v>2720</v>
+      </c>
+      <c r="Q33">
+        <v>1118</v>
+      </c>
+      <c r="R33">
+        <v>1067</v>
+      </c>
+      <c r="S33">
+        <v>2385</v>
+      </c>
+      <c r="T33">
+        <v>2538</v>
+      </c>
+      <c r="U33">
+        <v>1885</v>
+      </c>
+      <c r="V33">
+        <v>1869</v>
+      </c>
+      <c r="W33">
+        <v>4530</v>
+      </c>
+      <c r="X33">
+        <v>2229</v>
+      </c>
+      <c r="Y33">
+        <v>2229</v>
+      </c>
+      <c r="Z33">
+        <v>1893</v>
+      </c>
+      <c r="AA33">
+        <v>16454</v>
+      </c>
+      <c r="AB33">
+        <v>7594</v>
+      </c>
+      <c r="AC33">
+        <v>2117.1</v>
+      </c>
+      <c r="AD33">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1184</v>
+      </c>
+      <c r="C34">
+        <v>595</v>
+      </c>
+      <c r="D34">
+        <v>800</v>
+      </c>
+      <c r="E34">
+        <v>297</v>
+      </c>
+      <c r="F34">
+        <v>1171</v>
+      </c>
+      <c r="G34">
+        <v>118</v>
+      </c>
+      <c r="H34">
+        <v>499</v>
+      </c>
+      <c r="I34">
+        <v>1080</v>
+      </c>
+      <c r="J34">
+        <v>1539</v>
+      </c>
+      <c r="K34">
+        <v>1092</v>
+      </c>
+      <c r="L34">
+        <v>675</v>
+      </c>
+      <c r="M34">
+        <v>560</v>
+      </c>
+      <c r="N34">
+        <v>506</v>
+      </c>
+      <c r="O34">
+        <v>1259</v>
+      </c>
+      <c r="P34">
+        <v>1456</v>
+      </c>
+      <c r="Q34">
+        <v>537</v>
+      </c>
+      <c r="R34">
+        <v>416</v>
+      </c>
+      <c r="S34">
+        <v>970</v>
+      </c>
+      <c r="T34">
+        <v>2183</v>
+      </c>
+      <c r="U34">
+        <v>2310</v>
+      </c>
+      <c r="V34">
+        <v>1332</v>
+      </c>
+      <c r="W34">
+        <v>2698</v>
+      </c>
+      <c r="X34">
+        <v>1220</v>
+      </c>
+      <c r="Y34">
+        <v>1220</v>
+      </c>
+      <c r="Z34">
+        <v>1439</v>
+      </c>
+      <c r="AA34">
+        <v>7863</v>
+      </c>
+      <c r="AB34">
+        <v>8653.2999999999993</v>
+      </c>
+      <c r="AC34">
+        <v>1024.8</v>
+      </c>
+      <c r="AD34">
+        <v>3069.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>1005</v>
+      </c>
+      <c r="C35">
+        <v>385</v>
+      </c>
+      <c r="D35">
+        <v>460</v>
+      </c>
+      <c r="E35">
+        <v>211</v>
+      </c>
+      <c r="F35">
+        <v>335</v>
+      </c>
+      <c r="G35">
+        <v>64</v>
+      </c>
+      <c r="H35">
+        <v>308</v>
+      </c>
+      <c r="I35">
+        <v>426</v>
+      </c>
+      <c r="J35">
+        <v>339</v>
+      </c>
+      <c r="K35">
+        <v>499</v>
+      </c>
+      <c r="L35">
+        <v>636</v>
+      </c>
+      <c r="M35">
+        <v>325</v>
+      </c>
+      <c r="N35">
+        <v>182</v>
+      </c>
+      <c r="O35">
+        <v>765</v>
+      </c>
+      <c r="P35">
+        <v>1298</v>
+      </c>
+      <c r="Q35">
+        <v>444</v>
+      </c>
+      <c r="R35">
+        <v>847</v>
+      </c>
+      <c r="S35">
+        <v>784</v>
+      </c>
+      <c r="T35">
+        <v>1772</v>
+      </c>
+      <c r="U35">
+        <v>1299</v>
+      </c>
+      <c r="V35">
+        <v>817</v>
+      </c>
+      <c r="W35">
+        <v>5530</v>
+      </c>
+      <c r="X35">
+        <v>653</v>
+      </c>
+      <c r="Y35">
+        <v>653</v>
+      </c>
+      <c r="Z35">
+        <v>698</v>
+      </c>
+      <c r="AA35">
+        <v>6419</v>
+      </c>
+      <c r="AB35">
+        <v>5261.2</v>
+      </c>
+      <c r="AC35">
+        <v>980.9</v>
+      </c>
+      <c r="AD35">
+        <v>2708.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>1166</v>
+      </c>
+      <c r="C36">
+        <v>401</v>
+      </c>
+      <c r="D36">
+        <v>427</v>
+      </c>
+      <c r="E36">
+        <v>257</v>
+      </c>
+      <c r="F36">
+        <v>398</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>243</v>
+      </c>
+      <c r="I36">
+        <v>247</v>
+      </c>
+      <c r="J36">
+        <v>184</v>
+      </c>
+      <c r="K36">
+        <v>329</v>
+      </c>
+      <c r="L36">
+        <v>282</v>
+      </c>
+      <c r="M36">
+        <v>85</v>
+      </c>
+      <c r="N36">
+        <v>111</v>
+      </c>
+      <c r="O36">
+        <v>392</v>
+      </c>
+      <c r="P36">
+        <v>385</v>
+      </c>
+      <c r="Q36">
+        <v>136</v>
+      </c>
+      <c r="R36">
+        <v>275</v>
+      </c>
+      <c r="S36">
+        <v>654</v>
+      </c>
+      <c r="T36">
+        <v>700</v>
+      </c>
+      <c r="U36">
+        <v>1374</v>
+      </c>
+      <c r="V36">
+        <v>138</v>
+      </c>
+      <c r="W36">
+        <v>5691</v>
+      </c>
+      <c r="X36">
+        <v>208</v>
+      </c>
+      <c r="Y36">
+        <v>208</v>
+      </c>
+      <c r="Z36">
+        <v>323</v>
+      </c>
+      <c r="AA36">
+        <v>4494</v>
+      </c>
+      <c r="AB36">
+        <v>4009.5</v>
+      </c>
+      <c r="AC36">
+        <v>446.9</v>
+      </c>
+      <c r="AD36">
+        <v>2226.8000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>787</v>
+      </c>
+      <c r="C37">
+        <v>228</v>
+      </c>
+      <c r="D37">
+        <v>308</v>
+      </c>
+      <c r="E37">
+        <v>274</v>
+      </c>
+      <c r="F37">
+        <v>572</v>
+      </c>
+      <c r="G37">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <v>176</v>
+      </c>
+      <c r="I37">
+        <v>85</v>
+      </c>
+      <c r="J37">
+        <v>272</v>
+      </c>
+      <c r="K37">
+        <v>227</v>
+      </c>
+      <c r="L37">
+        <v>215</v>
+      </c>
+      <c r="M37">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>115</v>
+      </c>
+      <c r="O37">
+        <v>666</v>
+      </c>
+      <c r="P37">
+        <v>228</v>
+      </c>
+      <c r="Q37">
+        <v>55</v>
+      </c>
+      <c r="R37">
+        <v>40</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>300</v>
+      </c>
+      <c r="U37">
+        <v>372</v>
+      </c>
+      <c r="V37">
+        <v>136</v>
+      </c>
+      <c r="W37">
+        <v>1938</v>
+      </c>
+      <c r="X37">
+        <v>257</v>
+      </c>
+      <c r="Y37">
+        <v>257</v>
+      </c>
+      <c r="Z37">
+        <v>479</v>
+      </c>
+      <c r="AA37">
+        <v>2031</v>
+      </c>
+      <c r="AB37">
+        <v>1234.2</v>
+      </c>
+      <c r="AC37">
+        <v>525.79999999999995</v>
+      </c>
+      <c r="AD37">
+        <v>1548.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>662</v>
+      </c>
+      <c r="C38">
+        <v>93</v>
+      </c>
+      <c r="D38">
+        <v>237</v>
+      </c>
+      <c r="E38">
+        <v>119</v>
+      </c>
+      <c r="F38">
+        <v>75</v>
+      </c>
+      <c r="G38">
+        <v>22</v>
+      </c>
+      <c r="H38">
+        <v>164</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>151</v>
+      </c>
+      <c r="L38">
+        <v>180</v>
+      </c>
+      <c r="M38">
+        <v>136</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>308</v>
+      </c>
+      <c r="P38">
+        <v>60</v>
+      </c>
+      <c r="Q38">
+        <v>116</v>
+      </c>
+      <c r="R38">
+        <v>17</v>
+      </c>
+      <c r="S38">
+        <v>391</v>
+      </c>
+      <c r="T38">
+        <v>250</v>
+      </c>
+      <c r="U38">
+        <v>389</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>954</v>
+      </c>
+      <c r="X38">
+        <v>375</v>
+      </c>
+      <c r="Y38">
+        <v>375</v>
+      </c>
+      <c r="Z38">
+        <v>63</v>
+      </c>
+      <c r="AA38">
+        <v>557</v>
+      </c>
+      <c r="AB38">
+        <v>1376.5</v>
+      </c>
+      <c r="AC38">
+        <v>217.1</v>
+      </c>
+      <c r="AD38">
+        <v>710.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>221</v>
+      </c>
+      <c r="C39">
+        <v>124</v>
+      </c>
+      <c r="D39">
+        <v>155</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <v>191</v>
+      </c>
+      <c r="I39">
+        <v>40</v>
+      </c>
+      <c r="J39">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>67</v>
+      </c>
+      <c r="L39">
+        <v>81</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>76</v>
+      </c>
+      <c r="P39">
+        <v>85</v>
+      </c>
+      <c r="Q39">
+        <v>61</v>
+      </c>
+      <c r="R39">
+        <v>103</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>129</v>
+      </c>
+      <c r="U39">
+        <v>208</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1509</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>62</v>
+      </c>
+      <c r="AA39">
+        <v>53</v>
+      </c>
+      <c r="AB39">
+        <v>553</v>
+      </c>
+      <c r="AC39">
+        <v>43.8</v>
+      </c>
+      <c r="AD39">
+        <v>207.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>135</v>
+      </c>
+      <c r="C40">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>132</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>24</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>45</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>67</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>232</v>
+      </c>
+      <c r="P40">
+        <v>60</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>263</v>
+      </c>
+      <c r="T40">
+        <v>505</v>
+      </c>
+      <c r="U40">
+        <v>195</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>630</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>664</v>
+      </c>
+      <c r="AB40">
+        <v>218.5</v>
+      </c>
+      <c r="AC40">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="AD40">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>37</v>
+      </c>
+      <c r="E41">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>35</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>99</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>92</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>45</v>
+      </c>
+      <c r="W41">
+        <v>571</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>664</v>
+      </c>
+      <c r="AB41">
+        <v>255.9</v>
+      </c>
+      <c r="AC41">
+        <v>161</v>
+      </c>
+      <c r="AD41">
+        <v>130.19999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>128</v>
+      </c>
+      <c r="C42">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>99</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>525</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>274</v>
+      </c>
+      <c r="AA42">
+        <v>212</v>
+      </c>
+      <c r="AB42">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>28</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>50</v>
+      </c>
+      <c r="K43">
+        <v>76</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>63</v>
+      </c>
+      <c r="S43">
+        <v>131</v>
+      </c>
+      <c r="T43">
+        <v>46</v>
+      </c>
+      <c r="U43">
+        <v>83</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>355</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>71</v>
+      </c>
+      <c r="AB43">
+        <v>23</v>
+      </c>
+      <c r="AC43">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AD43">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>18</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>16</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>216</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>125</v>
+      </c>
+      <c r="AB44">
+        <v>441.6</v>
+      </c>
+      <c r="AC44">
+        <v>79.3</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>17</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>355</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>58.4</v>
+      </c>
+      <c r="AC45">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>17</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>62</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>77</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>39.6</v>
+      </c>
+      <c r="AD46">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>77</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>53</v>
+      </c>
+      <c r="AB47">
+        <v>223.8</v>
+      </c>
+      <c r="AC47">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>77</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>77</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>22.2</v>
+      </c>
+      <c r="AC51">
+        <v>39.6</v>
+      </c>
+      <c r="AD51">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12396,13 +17246,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{407FFEF3-52E4-484D-A38E-F3414FFDB07D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{407FFEF3-52E4-484D-A38E-F3414FFDB07D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA52AC6-1127-4ED5-872C-3A060FA6AA45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA52AC6-1127-4ED5-872C-3A060FA6AA45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8814B58-0DEE-4DD2-ADEE-8717870A20D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8814B58-0DEE-4DD2-ADEE-8717870A20D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>